--- a/user/outgoing/batch_results/nominal_phrase_results.xlsx
+++ b/user/outgoing/batch_results/nominal_phrase_results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">general_author_id</t>
   </si>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">txt_len_in_char</t>
   </si>
   <si>
-    <t xml:space="preserve">1071_0024817</t>
+    <t xml:space="preserve">1071_0024802</t>
   </si>
   <si>
     <t xml:space="preserve">English</t>
@@ -39,222 +39,216 @@
     <t xml:space="preserve">A1</t>
   </si>
   <si>
-    <t xml:space="preserve">1071_0024803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1071_0024701</t>
+    <t xml:space="preserve">1071_0024814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1071_0024816</t>
   </si>
   <si>
     <t xml:space="preserve">French</t>
   </si>
   <si>
-    <t xml:space="preserve">1071_0024759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1091_0000169</t>
+    <t xml:space="preserve">1071_0024691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anfänger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EINFACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIGENNAMEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDEWENDUNGEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART_NICHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREP_NICHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EINFACH_NICHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESAMT_UNBEKANNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESAMT_WAHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESAMT_FALSCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG_WAHR_MEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG_WAHR_MODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG_FALSCH_MEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG_FALSCH_MODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG_UNBEKANNT_MEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG_UNBEKANNT_MODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1061_0120283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1061_0120343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023_0101851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023_0109401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023_0109951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023_0101841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023_0108888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023_0101895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023_0109880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023_0108752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mittelstuffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1031_0003133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1031_0003132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1031_0003155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1031_0003357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1031_0003356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1031_0003170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1031_0002199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1031_0003136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1031_0003023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1031_0001998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortgeschritten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUPPEN_NAMEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P_VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTERNATIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two.sided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statistical_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTIMATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONF_INT_LOWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONF_INT_UPPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATISTIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METHOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welch Two Sample t-test</t>
   </si>
   <si>
     <t xml:space="preserve">A2</t>
   </si>
   <si>
-    <t xml:space="preserve">1091_0000116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anfänger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EINFACH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIGENNAMEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDEWENDUNGEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ART_NICHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREP_NICHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EINFACH_NICHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESAMT_UNBEKANNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESAMT_WAHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESAMT_FALSCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVG_WAHR_MEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVG_WAHR_MODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVG_FALSCH_MEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVG_FALSCH_MODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVG_UNBEKANNT_MEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVG_UNBEKANNT_MODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1061_0120487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1061_0120275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1023_0107042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1023_0109022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1023_0107672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1023_0108423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1023_0109096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1023_0109878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1023_0108958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1023_0109716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mittelstuffe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1031_0002079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1031_0002043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1031_0002185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1031_0002187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1031_0003354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1031_0001703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1031_0003077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1031_0003274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1031_0002195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1031_0003314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortgeschritten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRUPPEN_NAMEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P_VALUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTERNATIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two.sided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTIMATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONF_INT_LOWER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONF_INT_UPPER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATISTIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METHOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welch Two Sample t-test</t>
-  </si>
-  <si>
     <t xml:space="preserve">UNK</t>
   </si>
   <si>
@@ -330,6 +324,15 @@
     <t xml:space="preserve">B1_EN_AVG_UNBEKANNT</t>
   </si>
   <si>
+    <t xml:space="preserve">B1_FR_AVG_WAHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1_FR_AVG_FALSCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1_FR_AVG_UNBEKANNT</t>
+  </si>
+  <si>
     <t xml:space="preserve">B2_EN_AVG_WAHR</t>
   </si>
   <si>
@@ -354,13 +357,16 @@
     <t xml:space="preserve">C1_EN_AVG_FALSCH</t>
   </si>
   <si>
+    <t xml:space="preserve">C1_EN_AVG_UNBEKANNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1_FR_AVG_WAHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1_FR_AVG_FALSCH</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1_FR_AVG_UNBEKANNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1_FR_AVG_WAHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1_FR_AVG_FALSCH</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>185</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3">
@@ -731,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4">
@@ -745,7 +751,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>503</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -759,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>190</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6">
@@ -767,32 +773,18 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="n">
-        <v>510</v>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -804,29 +796,43 @@
         <v>17</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -834,13 +840,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -848,477 +854,343 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
         <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C33" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" t="n">
         <v>2</v>
-      </c>
-      <c r="D33" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>31</v>
+      <c r="A37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="n">
-        <v>6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="n">
-        <v>15</v>
-      </c>
-      <c r="C40" t="n">
-        <v>5</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>10</v>
+      <c r="A41" t="n">
+        <v>3</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42" t="n">
-        <v>7</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
         <v>13</v>
       </c>
-      <c r="B43" t="n">
-        <v>2</v>
-      </c>
-      <c r="C43" t="n">
-        <v>5</v>
-      </c>
-      <c r="D43" t="n">
-        <v>5</v>
+      <c r="D42" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>3.16666666666667</v>
-      </c>
-      <c r="B47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>4.66666666666667</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>6</v>
-      </c>
-      <c r="B55" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1351,156 +1223,156 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>758</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>856</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>1241</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>1322</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>1317</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>903</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>1208</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>963</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" t="n">
-        <v>1213</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" t="n">
-        <v>1089</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1508,24 +1380,24 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1533,13 +1405,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1547,13 +1419,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1561,13 +1433,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1575,13 +1447,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1589,13 +1461,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1603,13 +1475,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1617,13 +1489,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1631,13 +1503,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1645,13 +1517,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1659,16 +1531,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -1676,18 +1548,18 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1695,10 +1567,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1706,7 +1578,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B30" t="n">
         <v>8</v>
@@ -1717,10 +1589,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -1728,43 +1600,43 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B33" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -1772,21 +1644,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -1794,16 +1666,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -1811,18 +1683,18 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -1831,12 +1703,12 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -1845,12 +1717,12 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -1859,12 +1731,12 @@
         <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -1873,18 +1745,18 @@
         <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>13</v>
@@ -1892,49 +1764,49 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -1943,35 +1815,35 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
@@ -1979,240 +1851,240 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B54" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B55" t="n">
         <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B56" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B57" t="n">
         <v>16</v>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B58" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B59" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D59" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B60" t="n">
+        <v>17</v>
+      </c>
+      <c r="C60" t="n">
         <v>15</v>
       </c>
-      <c r="C60" t="n">
-        <v>12</v>
-      </c>
       <c r="D60" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B61" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C61" t="n">
         <v>8</v>
       </c>
       <c r="D61" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B62" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B63" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.7</v>
+        <v>9.3</v>
       </c>
       <c r="B67" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>14.5</v>
+        <v>15.3</v>
       </c>
       <c r="B71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>16.4</v>
+        <v>17.5</v>
       </c>
       <c r="B75" t="n">
         <v>17</v>
@@ -2220,16 +2092,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2262,156 +2134,156 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>1671</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>1497</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>1929</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>1123</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>1276</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" t="n">
-        <v>1293</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n">
-        <v>1612</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
-        <v>1372</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" t="n">
-        <v>1189</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" t="n">
-        <v>1560</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -2419,24 +2291,24 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2444,13 +2316,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2458,13 +2330,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2472,13 +2344,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2486,41 +2358,41 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2528,58 +2400,58 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
         <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2587,18 +2459,18 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2606,10 +2478,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2617,10 +2489,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2628,7 +2500,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
@@ -2639,10 +2511,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -2650,10 +2522,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -2661,10 +2533,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -2672,10 +2544,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -2683,7 +2555,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B36" t="n">
         <v>7</v>
@@ -2694,10 +2566,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -2705,16 +2577,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -2722,24 +2594,24 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>8</v>
@@ -2747,7 +2619,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -2761,105 +2633,105 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -2868,21 +2740,21 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
@@ -2890,38 +2762,38 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C54" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
@@ -2929,141 +2801,141 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D56" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C58" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C62" t="n">
+        <v>14</v>
+      </c>
+      <c r="D62" t="n">
         <v>9</v>
-      </c>
-      <c r="D62" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.8</v>
+        <v>10.5</v>
       </c>
       <c r="B67" t="n">
         <v>9</v>
@@ -3071,76 +2943,76 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="B71" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>26.6</v>
+        <v>25.9</v>
       </c>
       <c r="B75" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3159,16 +3031,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -3176,41 +3048,41 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0513167019494862</v>
+        <v>0.795167235300867</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -3218,13 +3090,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.04243492229665</v>
+        <v>-39.1186142085241</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0424349222966544</v>
+        <v>37.1186142085241</v>
       </c>
     </row>
     <row r="7">
@@ -3232,38 +3104,38 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.04243492229665</v>
+        <v>-39.1186142085241</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0424349222966544</v>
+        <v>37.1186142085241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -3271,532 +3143,532 @@
         <v>6</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.24264068711928</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
         <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
         <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>0.152471289125146</v>
+        <v>0.403800355188329</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D39" t="n">
-        <v>5.63860864327661</v>
+        <v>5.99376299376299</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.50931242307673</v>
+        <v>-4.31363290791967</v>
       </c>
       <c r="D43" t="n">
-        <v>7.50931242307673</v>
+        <v>9.31363290791967</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.50931242307673</v>
+        <v>-4.31363290791967</v>
       </c>
       <c r="D44" t="n">
-        <v>7.50931242307673</v>
+        <v>9.31363290791967</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48" t="n">
-        <v>1.65353476382865</v>
+        <v>0.898026510133875</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" t="s">
         <v>67</v>
-      </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>0.158357161239737</v>
+        <v>0.4464751662955</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D52" t="n">
-        <v>5.13033239742777</v>
+        <v>7.49721833814298</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B56" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.96576362754607</v>
+        <v>-3.42762177115574</v>
       </c>
       <c r="D56" t="n">
-        <v>9.16576362754607</v>
+        <v>7.02762177115574</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.96576362754607</v>
+        <v>-3.42762177115574</v>
       </c>
       <c r="D57" t="n">
-        <v>9.16576362754607</v>
+        <v>7.02762177115574</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B61" t="n">
-        <v>1.65005729465078</v>
+        <v>0.803379316819413</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3815,398 +3687,362 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
         <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
         <v>95</v>
       </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7</v>
+      <c r="A10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>14</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7</v>
+      <c r="A14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C14" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>18.5</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11.75</v>
+        <v>9.5</v>
       </c>
       <c r="B30" t="n">
-        <v>18.5</v>
+        <v>17.75</v>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8.75</v>
+        <v>11.4</v>
       </c>
       <c r="B34" t="n">
-        <v>14</v>
+        <v>12.8</v>
       </c>
       <c r="C34" t="n">
-        <v>17.25</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11.6</v>
+        <v>9.6</v>
       </c>
       <c r="B38" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="C38" t="n">
-        <v>28.8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>8</v>
-      </c>
-      <c r="B42" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
